--- a/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773CCB4F-65FE-472A-9AAC-84ECFA4F08F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DBDADA-D382-4464-B028-CDD2366D3735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3DF0D4D3-4F08-420F-83B5-D805D5E16C25}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{985F2292-9144-46B7-BDDE-7946B13E7BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
     <t>10,09%</t>
   </si>
   <si>
@@ -118,33 +286,6 @@
     <t>12,42%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
     <t>50,94%</t>
   </si>
   <si>
@@ -172,24 +313,6 @@
     <t>53,2%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
     <t>37,96%</t>
   </si>
   <si>
@@ -217,127 +340,43 @@
     <t>42,64%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>12,31%</t>
@@ -367,30 +406,6 @@
     <t>13,86%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>48,09%</t>
   </si>
   <si>
@@ -418,21 +433,6 @@
     <t>51,67%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>38,12%</t>
   </si>
   <si>
@@ -463,6 +463,159 @@
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
   </si>
   <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>11,77%</t>
   </si>
   <si>
@@ -490,33 +643,6 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
     <t>39,67%</t>
   </si>
   <si>
@@ -544,27 +670,6 @@
     <t>45,63%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>46,11%</t>
   </si>
   <si>
@@ -592,109 +697,40 @@
     <t>49,68%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>13,26%</t>
@@ -721,27 +757,6 @@
     <t>12,58%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>38,53%</t>
   </si>
   <si>
@@ -769,21 +784,6 @@
     <t>44,81%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>45,81%</t>
   </si>
   <si>
@@ -814,6 +814,144 @@
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>9,5%</t>
   </si>
   <si>
@@ -841,21 +979,6 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>38,39%</t>
   </si>
   <si>
@@ -883,18 +1006,6 @@
     <t>42,42%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>49,67%</t>
   </si>
   <si>
@@ -922,115 +1033,37 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>10,23%</t>
@@ -1054,21 +1087,6 @@
     <t>8,26%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>36,42%</t>
   </si>
   <si>
@@ -1094,24 +1112,6 @@
   </si>
   <si>
     <t>41,05%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -1530,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C658847-C4CB-4888-974C-770BAF5BC194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCC43A-D44E-49FC-BF95-F72B30D66C8F}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1920,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>25202</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1935,34 +1935,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>24398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>679</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>75</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49599</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,49 +1971,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1386</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>671</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>1824</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="N11" s="7">
+        <v>2057</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2628</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4452</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,49 +2022,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>127252</v>
+        <v>12834</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9085</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>34</v>
+      </c>
+      <c r="N12" s="7">
+        <v>21919</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>171</v>
-      </c>
-      <c r="I12" s="7">
-        <v>116859</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>363</v>
-      </c>
-      <c r="N12" s="7">
-        <v>244110</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +2073,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>695</v>
+        <v>21264</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>22454</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>64</v>
+      </c>
+      <c r="N13" s="7">
+        <v>43718</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>661</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1356</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,49 +2124,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>94817</v>
+        <v>22906</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>25</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16672</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="7">
-        <v>145</v>
-      </c>
-      <c r="I14" s="7">
-        <v>96565</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>61</v>
+      </c>
+      <c r="N14" s="7">
+        <v>39578</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="7">
-        <v>286</v>
-      </c>
-      <c r="N14" s="7">
-        <v>191383</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,102 +2175,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>249790</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241110</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>733</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>490900</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>12834</v>
+        <v>695</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>661</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1356</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9085</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="7">
-        <v>34</v>
-      </c>
-      <c r="N16" s="7">
-        <v>21919</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2279,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>1386</v>
+        <v>1824</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2628</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4452</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>671</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2057</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,49 +2330,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7">
-        <v>21264</v>
+        <v>25202</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7">
+        <v>37</v>
+      </c>
+      <c r="I18" s="7">
+        <v>24398</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22454</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>75</v>
+      </c>
+      <c r="N18" s="7">
+        <v>49599</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="M18" s="7">
-        <v>64</v>
-      </c>
-      <c r="N18" s="7">
-        <v>43718</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,46 +2381,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D19" s="7">
-        <v>679</v>
+        <v>127252</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>171</v>
+      </c>
+      <c r="I19" s="7">
+        <v>116859</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>363</v>
+      </c>
+      <c r="N19" s="7">
+        <v>244110</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>679</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>90</v>
@@ -2432,10 +2432,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7">
-        <v>22906</v>
+        <v>94817</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>91</v>
@@ -2447,10 +2447,10 @@
         <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>16672</v>
+        <v>96565</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>94</v>
@@ -2462,10 +2462,10 @@
         <v>96</v>
       </c>
       <c r="M20" s="7">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="N20" s="7">
-        <v>39578</v>
+        <v>191383</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>97</v>
@@ -2483,49 +2483,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>249790</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241110</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>733</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>490900</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2536,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>38036</v>
+        <v>1374</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>661</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="7">
-        <v>51</v>
-      </c>
-      <c r="I22" s="7">
-        <v>33483</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2035</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="7">
-        <v>109</v>
-      </c>
-      <c r="N22" s="7">
-        <v>71519</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2593,13 @@
         <v>3211</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2608,13 +2608,13 @@
         <v>3298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2623,13 +2623,13 @@
         <v>6509</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2638,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7">
-        <v>148516</v>
+        <v>38036</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="7">
+        <v>51</v>
+      </c>
+      <c r="I24" s="7">
+        <v>33483</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>109</v>
+      </c>
+      <c r="N24" s="7">
+        <v>71519</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="7">
-        <v>204</v>
-      </c>
-      <c r="I24" s="7">
-        <v>139312</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="7">
-        <v>427</v>
-      </c>
-      <c r="N24" s="7">
-        <v>287829</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,40 +2689,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="D25" s="7">
-        <v>1374</v>
+        <v>148516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="7">
+        <v>204</v>
+      </c>
+      <c r="I25" s="7">
+        <v>139312</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>661</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>427</v>
       </c>
       <c r="N25" s="7">
-        <v>2035</v>
+        <v>287829</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>128</v>
@@ -2797,13 +2797,13 @@
         <v>308859</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -2812,13 +2812,13 @@
         <v>289992</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>896</v>
@@ -2827,13 +2827,13 @@
         <v>598851</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4459FE-3119-4FB4-A5EB-DBEF2CD67E31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1870D6E-7CFB-449B-B932-79496A77BF92}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3242,49 +3242,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>30592</v>
+        <v>1457</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18630</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1457</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49222</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,49 +3293,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5012</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3086</v>
+        <v>612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>8098</v>
+        <v>612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,49 +3344,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12632</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="7">
-        <v>103114</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>107010</v>
+        <v>4319</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M12" s="7">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>210123</v>
+        <v>16951</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,49 +3395,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>1355</v>
+        <v>22527</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>2959</v>
+        <v>33295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>4314</v>
+        <v>55822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3446,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29558</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7">
+        <v>31141</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="7">
+        <v>85</v>
+      </c>
+      <c r="N14" s="7">
+        <v>60699</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D14" s="7">
-        <v>119831</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="7">
-        <v>155</v>
-      </c>
-      <c r="I14" s="7">
-        <v>109745</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="7">
-        <v>331</v>
-      </c>
-      <c r="N14" s="7">
-        <v>229577</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,102 +3497,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>241430</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>501334</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1355</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>12632</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="7">
         <v>6</v>
       </c>
-      <c r="I16" s="7">
-        <v>4319</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="7">
-        <v>24</v>
-      </c>
       <c r="N16" s="7">
-        <v>16951</v>
+        <v>4314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3601,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>5012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>612</v>
+        <v>3086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>612</v>
+        <v>8098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,49 +3652,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>22527</v>
+        <v>30592</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="7">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7">
+        <v>18630</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>73</v>
+      </c>
+      <c r="N18" s="7">
+        <v>49222</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="7">
-        <v>47</v>
-      </c>
-      <c r="I18" s="7">
-        <v>33295</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" s="7">
-        <v>78</v>
-      </c>
-      <c r="N18" s="7">
-        <v>55822</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,46 +3703,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="D19" s="7">
-        <v>1457</v>
+        <v>103114</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="7">
+        <v>152</v>
+      </c>
+      <c r="I19" s="7">
+        <v>107010</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>303</v>
+      </c>
+      <c r="N19" s="7">
+        <v>210123</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1457</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>209</v>
@@ -3754,10 +3754,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="D20" s="7">
-        <v>29558</v>
+        <v>119831</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>210</v>
@@ -3769,10 +3769,10 @@
         <v>212</v>
       </c>
       <c r="H20" s="7">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="I20" s="7">
-        <v>31141</v>
+        <v>109745</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>213</v>
@@ -3784,10 +3784,10 @@
         <v>215</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="N20" s="7">
-        <v>60699</v>
+        <v>229577</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>216</v>
@@ -3805,49 +3805,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>241430</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>726</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>501334</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,49 +3858,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>43224</v>
+        <v>2813</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H22" s="7">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22949</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5771</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M22" s="7">
-        <v>97</v>
-      </c>
-      <c r="N22" s="7">
-        <v>66173</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3915,13 @@
         <v>5012</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3930,13 +3930,13 @@
         <v>3698</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3945,13 +3945,13 @@
         <v>8710</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +3960,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7">
-        <v>125640</v>
+        <v>43224</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="7">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22949</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="7">
+        <v>97</v>
+      </c>
+      <c r="N24" s="7">
+        <v>66173</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H24" s="7">
-        <v>199</v>
-      </c>
-      <c r="I24" s="7">
-        <v>140305</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M24" s="7">
-        <v>381</v>
-      </c>
-      <c r="N24" s="7">
-        <v>265946</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,43 +4011,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="D25" s="7">
-        <v>2813</v>
+        <v>125640</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H25" s="7">
+        <v>199</v>
+      </c>
+      <c r="I25" s="7">
+        <v>140305</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2959</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>381</v>
+      </c>
+      <c r="N25" s="7">
+        <v>265946</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="M25" s="7">
-        <v>8</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5771</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>246</v>
@@ -4119,13 +4119,13 @@
         <v>326078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4134,13 +4134,13 @@
         <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>916</v>
@@ -4149,13 +4149,13 @@
         <v>636877</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4174,7 +4174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1BB88D-659F-42A0-ADF6-4F2BFEA9812C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0381D129-1826-4959-83B1-821483C31B5B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4564,49 +4564,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>25830</v>
+        <v>1193</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>640</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="7">
-        <v>36</v>
-      </c>
-      <c r="I10" s="7">
-        <v>26170</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1833</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="M10" s="7">
-        <v>71</v>
-      </c>
-      <c r="N10" s="7">
-        <v>52000</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +4615,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>6021</v>
+        <v>1357</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>724</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2081</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1479</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7500</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +4666,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>104425</v>
+        <v>9772</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8646</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H12" s="7">
-        <v>140</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99202</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>27</v>
+      </c>
+      <c r="N12" s="7">
+        <v>18418</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="M12" s="7">
-        <v>281</v>
-      </c>
-      <c r="N12" s="7">
-        <v>203627</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +4717,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>636</v>
+        <v>22292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="7">
+        <v>57</v>
+      </c>
+      <c r="I13" s="7">
+        <v>37782</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1244</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>1879</v>
+        <v>60074</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,49 +4768,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>135111</v>
+        <v>41252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
-        <v>181</v>
+        <v>59</v>
       </c>
       <c r="I14" s="7">
-        <v>129919</v>
+        <v>39263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
-        <v>364</v>
+        <v>118</v>
       </c>
       <c r="N14" s="7">
-        <v>265029</v>
+        <v>80515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,102 +4819,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>272023</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258013</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>729</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>530035</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>9772</v>
+        <v>636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1244</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8646</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1879</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="M16" s="7">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7">
-        <v>18418</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +4923,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6021</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>1357</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>1479</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" s="7">
+        <v>7500</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>724</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2081</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +4974,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>22292</v>
+        <v>25830</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="7">
+        <v>36</v>
+      </c>
+      <c r="I18" s="7">
+        <v>26170</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="7">
-        <v>57</v>
-      </c>
-      <c r="I18" s="7">
-        <v>37782</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>71</v>
+      </c>
+      <c r="N18" s="7">
+        <v>52000</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="M18" s="7">
-        <v>90</v>
-      </c>
-      <c r="N18" s="7">
-        <v>60074</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5025,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D19" s="7">
-        <v>1193</v>
+        <v>104425</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H19" s="7">
+        <v>140</v>
+      </c>
+      <c r="I19" s="7">
+        <v>99202</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>640</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>281</v>
+      </c>
+      <c r="N19" s="7">
+        <v>203627</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1833</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,25 +5076,25 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="D20" s="7">
-        <v>41252</v>
+        <v>135111</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>324</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="I20" s="7">
-        <v>39263</v>
+        <v>129919</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>325</v>
@@ -5106,10 +5106,10 @@
         <v>327</v>
       </c>
       <c r="M20" s="7">
-        <v>118</v>
+        <v>364</v>
       </c>
       <c r="N20" s="7">
-        <v>80515</v>
+        <v>265029</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>328</v>
@@ -5127,49 +5127,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>272023</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258013</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>729</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>530035</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>35603</v>
+        <v>1828</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="H22" s="7">
-        <v>49</v>
-      </c>
-      <c r="I22" s="7">
-        <v>34816</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>334</v>
@@ -5210,19 +5210,19 @@
         <v>335</v>
       </c>
       <c r="M22" s="7">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>70418</v>
+        <v>3712</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5237,13 @@
         <v>7378</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5252,13 +5252,13 @@
         <v>2202</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -5267,13 +5267,13 @@
         <v>9580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,49 +5282,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>126718</v>
+        <v>35603</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>49</v>
+      </c>
+      <c r="I24" s="7">
+        <v>34816</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H24" s="7">
-        <v>197</v>
-      </c>
-      <c r="I24" s="7">
-        <v>136984</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>98</v>
+      </c>
+      <c r="N24" s="7">
+        <v>70418</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="M24" s="7">
-        <v>371</v>
-      </c>
-      <c r="N24" s="7">
-        <v>263701</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,49 +5333,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="D25" s="7">
-        <v>1828</v>
+        <v>126718</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H25" s="7">
+        <v>197</v>
+      </c>
+      <c r="I25" s="7">
+        <v>136984</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>371</v>
+      </c>
+      <c r="N25" s="7">
+        <v>263701</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3712</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5441,13 @@
         <v>347889</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>492</v>
@@ -5456,13 +5456,13 @@
         <v>345068</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>970</v>
@@ -5471,13 +5471,13 @@
         <v>692956</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DBDADA-D382-4464-B028-CDD2366D3735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8642C7F1-F3CD-4CC7-875F-DC9A914CD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{985F2292-9144-46B7-BDDE-7946B13E7BAB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A9A7808-AA6F-453A-9D73-1D4BD4923B37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="371">
   <si>
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -67,1078 +67,1090 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1161,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1245,39 +1257,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1329,7 +1341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1440,13 +1452,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1455,6 +1460,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1519,19 +1531,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCC43A-D44E-49FC-BF95-F72B30D66C8F}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB436F5C-005C-4808-A204-9DCB3BA72B43}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1920,49 +1952,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,49 +1997,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,49 +2042,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
-      </c>
-      <c r="N12" s="7">
-        <v>21919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +2087,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,49 +2132,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7">
-        <v>22906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
-      </c>
-      <c r="N14" s="7">
-        <v>39578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,102 +2177,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>695</v>
+        <v>43314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7">
+        <v>46575</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="7">
+        <v>137</v>
+      </c>
+      <c r="N16" s="7">
+        <v>89889</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>661</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1356</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2275,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7">
-        <v>1824</v>
+        <v>57535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="I17" s="7">
-        <v>2628</v>
+        <v>48944</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="N17" s="7">
-        <v>4452</v>
+        <v>106479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,49 +2326,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19336</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="7">
-        <v>25202</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>24398</v>
+        <v>14213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>49599</v>
+        <v>33549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2377,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>127252</v>
+        <v>2618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>116859</v>
+        <v>1325</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>363</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>244110</v>
+        <v>3942</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,49 +2428,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>94817</v>
+        <v>679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>96565</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>191383</v>
+        <v>679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,102 +2479,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>249790</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="I21" s="7">
-        <v>241110</v>
+        <v>111057</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>733</v>
+        <v>353</v>
       </c>
       <c r="N21" s="7">
-        <v>490900</v>
+        <v>234538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7">
-        <v>1374</v>
+        <v>74410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I22" s="7">
-        <v>661</v>
+        <v>66662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>210</v>
       </c>
       <c r="N22" s="7">
-        <v>2035</v>
+        <v>141071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,49 +2583,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>3211</v>
+        <v>90981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="I23" s="7">
-        <v>3298</v>
+        <v>90369</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="N23" s="7">
-        <v>6509</v>
+        <v>181350</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2634,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>38036</v>
+        <v>18700</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>33483</v>
+        <v>19270</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>71519</v>
+        <v>37969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,49 +2685,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>148516</v>
+        <v>593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>139312</v>
+        <v>1974</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
-        <v>427</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>287829</v>
+        <v>2567</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,49 +2736,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>117723</v>
+        <v>695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>113237</v>
+        <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
-        <v>347</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>230960</v>
+        <v>1356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,55 +2787,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>279</v>
+      </c>
+      <c r="D27" s="7">
+        <v>185378</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364313</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>177</v>
+      </c>
+      <c r="D28" s="7">
+        <v>117723</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="7">
+        <v>170</v>
+      </c>
+      <c r="I28" s="7">
+        <v>113237</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="7">
+        <v>347</v>
+      </c>
+      <c r="N28" s="7">
+        <v>230960</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>223</v>
+      </c>
+      <c r="D29" s="7">
+        <v>148516</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7">
+        <v>204</v>
+      </c>
+      <c r="I29" s="7">
+        <v>139312</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="7">
+        <v>427</v>
+      </c>
+      <c r="N29" s="7">
+        <v>287829</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>58</v>
+      </c>
+      <c r="D30" s="7">
+        <v>38036</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7">
+        <v>51</v>
+      </c>
+      <c r="I30" s="7">
+        <v>33483</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="7">
+        <v>109</v>
+      </c>
+      <c r="N30" s="7">
+        <v>71519</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3211</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3298</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6509</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1374</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>661</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2035</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>308859</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>431</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289992</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>896</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>598851</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2852,8 +3162,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1870D6E-7CFB-449B-B932-79496A77BF92}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC882E-153C-470E-AA94-0E66A1BC76BB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2869,7 +3179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3242,49 +3552,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,47 +3599,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,49 +3642,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>24</v>
-      </c>
-      <c r="N12" s="7">
-        <v>16951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,49 +3687,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7">
-        <v>33295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>78</v>
-      </c>
-      <c r="N13" s="7">
-        <v>55822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3732,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
-      </c>
-      <c r="I14" s="7">
-        <v>31141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7">
-        <v>60699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,102 +3777,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7">
-        <v>1355</v>
+        <v>69603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7">
-        <v>2959</v>
+        <v>75963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="N16" s="7">
-        <v>4314</v>
+        <v>145566</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3875,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>5012</v>
+        <v>56004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>3086</v>
+        <v>62759</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="N17" s="7">
-        <v>8098</v>
+        <v>118763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,49 +3926,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>30592</v>
+        <v>27048</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>18630</v>
+        <v>9441</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="N18" s="7">
-        <v>49222</v>
+        <v>36489</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,49 +3977,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>103114</v>
+        <v>689</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>107010</v>
+        <v>1802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>210123</v>
+        <v>2491</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,49 +4028,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2082</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="7">
-        <v>119831</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>109745</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>229577</v>
+        <v>2082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,102 +4079,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>241430</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>501334</v>
+        <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7">
-        <v>2813</v>
+        <v>79786</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>2959</v>
+        <v>64924</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>207</v>
       </c>
       <c r="N22" s="7">
-        <v>5771</v>
+        <v>144711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,49 +4183,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7">
-        <v>5012</v>
+        <v>69636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="I23" s="7">
-        <v>3698</v>
+        <v>77546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="N23" s="7">
-        <v>8710</v>
+        <v>147182</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +4234,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>43224</v>
+        <v>16175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H24" s="7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>22949</v>
+        <v>13509</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M24" s="7">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="N24" s="7">
-        <v>66173</v>
+        <v>29684</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +4285,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>125640</v>
+        <v>4323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>140305</v>
+        <v>1896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
-        <v>381</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>265946</v>
+        <v>6219</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4336,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>731</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="7">
-        <v>149390</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="7">
-        <v>199</v>
-      </c>
-      <c r="I26" s="7">
-        <v>140887</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>290277</v>
+        <v>3689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,55 +4387,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>228</v>
+      </c>
+      <c r="I27" s="7">
+        <v>160834</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>479</v>
+      </c>
+      <c r="N27" s="7">
+        <v>331485</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>217</v>
+      </c>
+      <c r="D28" s="7">
+        <v>149390</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="7">
+        <v>199</v>
+      </c>
+      <c r="I28" s="7">
+        <v>140887</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" s="7">
+        <v>416</v>
+      </c>
+      <c r="N28" s="7">
+        <v>290277</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>182</v>
+      </c>
+      <c r="D29" s="7">
+        <v>125640</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="7">
+        <v>199</v>
+      </c>
+      <c r="I29" s="7">
+        <v>140305</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" s="7">
+        <v>381</v>
+      </c>
+      <c r="N29" s="7">
+        <v>265946</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>63</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43224</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="7">
+        <v>34</v>
+      </c>
+      <c r="I30" s="7">
+        <v>22949</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="7">
+        <v>97</v>
+      </c>
+      <c r="N30" s="7">
+        <v>66173</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5012</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3698</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" s="7">
+        <v>14</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8710</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2813</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2959</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5771</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326078</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310798</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>916</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>636877</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4174,8 +4762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0381D129-1826-4959-83B1-821483C31B5B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C48E49-07D8-4C41-8ADE-09FE0889EFA3}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4191,7 +4779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4564,49 +5152,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1833</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,49 +5197,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,49 +5242,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>27</v>
-      </c>
-      <c r="N12" s="7">
-        <v>18418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,49 +5287,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
-      </c>
-      <c r="N13" s="7">
-        <v>60074</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,49 +5332,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7">
-        <v>41252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>118</v>
-      </c>
-      <c r="N14" s="7">
-        <v>80515</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,102 +5377,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7">
-        <v>636</v>
+        <v>96894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>1244</v>
+        <v>95890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="N16" s="7">
-        <v>1879</v>
+        <v>192783</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,49 +5475,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>6021</v>
+        <v>58471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>1479</v>
+        <v>67384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="N17" s="7">
-        <v>7500</v>
+        <v>125855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,49 +5526,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>25830</v>
+        <v>17820</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>26170</v>
+        <v>14831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N18" s="7">
-        <v>52000</v>
+        <v>32651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,49 +5577,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>104425</v>
+        <v>4233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>99202</v>
+        <v>1516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
-        <v>281</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>203627</v>
+        <v>5749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5628,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>135111</v>
+        <v>1193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>129919</v>
+        <v>1267</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>364</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>265029</v>
+        <v>2459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,102 +5679,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>272023</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258013</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>729</v>
+        <v>509</v>
       </c>
       <c r="N21" s="7">
-        <v>530035</v>
+        <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D22" s="7">
-        <v>1828</v>
+        <v>79469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="I22" s="7">
-        <v>1884</v>
+        <v>73292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="N22" s="7">
-        <v>3712</v>
+        <v>152761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,49 +5783,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="D23" s="7">
-        <v>7378</v>
+        <v>68246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="I23" s="7">
-        <v>2202</v>
+        <v>69600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="N23" s="7">
-        <v>9580</v>
+        <v>137846</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,49 +5834,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>35603</v>
+        <v>17782</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I24" s="7">
-        <v>34816</v>
+        <v>19985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="N24" s="7">
-        <v>70418</v>
+        <v>37767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,49 +5885,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>126718</v>
+        <v>3145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>136984</v>
+        <v>687</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>263701</v>
+        <v>3832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,49 +5936,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>176363</v>
+        <v>636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>169182</v>
+        <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
-        <v>482</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>345544</v>
+        <v>1253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,55 +5987,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>228</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169278</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>233</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164181</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>461</v>
+      </c>
+      <c r="N27" s="7">
+        <v>333459</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>242</v>
+      </c>
+      <c r="D28" s="7">
+        <v>176363</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
+        <v>240</v>
+      </c>
+      <c r="I28" s="7">
+        <v>169182</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" s="7">
+        <v>482</v>
+      </c>
+      <c r="N28" s="7">
+        <v>345544</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>174</v>
+      </c>
+      <c r="D29" s="7">
+        <v>126718</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="7">
+        <v>197</v>
+      </c>
+      <c r="I29" s="7">
+        <v>136984</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="7">
+        <v>371</v>
+      </c>
+      <c r="N29" s="7">
+        <v>263701</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7">
+        <v>35603</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="7">
+        <v>49</v>
+      </c>
+      <c r="I30" s="7">
+        <v>34816</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M30" s="7">
+        <v>98</v>
+      </c>
+      <c r="N30" s="7">
+        <v>70418</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7378</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2202</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9580</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1828</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3712</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>347889</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345068</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>970</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>692956</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8642C7F1-F3CD-4CC7-875F-DC9A914CD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B943D4DA-4CB6-499E-88CC-927209CDBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A9A7808-AA6F-453A-9D73-1D4BD4923B37}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A07819B7-CB4D-4A17-9CF0-85EA70A3F2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="365">
   <si>
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -97,1060 +97,1042 @@
     <t>35,08%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>34,74%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB436F5C-005C-4808-A204-9DCB3BA72B43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EA25C7-7698-43E8-B573-601CF7859888}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3002,10 +2984,10 @@
         <v>127</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3017,10 +2999,10 @@
         <v>56</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3029,10 +3011,10 @@
         <v>6509</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>133</v>
@@ -3050,13 +3032,13 @@
         <v>1374</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3065,13 +3047,13 @@
         <v>661</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3080,13 +3062,13 @@
         <v>2035</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,7 +3124,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3162,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC882E-153C-470E-AA94-0E66A1BC76BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15276DD-D7BD-43EB-810E-CB87926F683B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3179,7 +3161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3830,13 +3812,13 @@
         <v>69603</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -3845,13 +3827,13 @@
         <v>75963</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -3860,13 +3842,13 @@
         <v>145566</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3863,13 @@
         <v>56004</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -3896,13 +3878,13 @@
         <v>62759</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -3911,13 +3893,13 @@
         <v>118763</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3914,13 @@
         <v>27048</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3947,13 +3929,13 @@
         <v>9441</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -3962,13 +3944,13 @@
         <v>36489</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3965,13 @@
         <v>689</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4040,7 +4022,7 @@
         <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4055,7 +4037,7 @@
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4064,10 +4046,10 @@
         <v>2082</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>180</v>
@@ -4294,10 +4276,10 @@
         <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4306,13 +4288,13 @@
         <v>1896</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4321,13 +4303,13 @@
         <v>6219</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4324,13 @@
         <v>731</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -4357,13 +4339,13 @@
         <v>2959</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4372,13 +4354,13 @@
         <v>3689</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4428,13 @@
         <v>149390</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" s="7">
         <v>199</v>
@@ -4461,13 +4443,13 @@
         <v>140887</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -4476,13 +4458,13 @@
         <v>290277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4479,13 @@
         <v>125640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>199</v>
@@ -4512,13 +4494,13 @@
         <v>140305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -4527,13 +4509,13 @@
         <v>265946</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4530,13 @@
         <v>43224</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -4563,13 +4545,13 @@
         <v>22949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M30" s="7">
         <v>97</v>
@@ -4578,13 +4560,13 @@
         <v>66173</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4581,13 @@
         <v>5012</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -4617,10 +4599,10 @@
         <v>48</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -4629,13 +4611,13 @@
         <v>8710</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4632,13 @@
         <v>2813</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -4665,13 +4647,13 @@
         <v>2959</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4680,13 +4662,13 @@
         <v>5771</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4724,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C48E49-07D8-4C41-8ADE-09FE0889EFA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA4DB5-20E1-46DB-9F17-82336D92B6E4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4779,7 +4761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5430,13 +5412,13 @@
         <v>96894</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>138</v>
@@ -5445,13 +5427,13 @@
         <v>95890</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>272</v>
@@ -5460,13 +5442,13 @@
         <v>192783</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5463,13 @@
         <v>58471</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -5499,10 +5481,10 @@
         <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -5511,13 +5493,13 @@
         <v>125855</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5514,13 @@
         <v>17820</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -5547,13 +5529,13 @@
         <v>14831</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -5562,13 +5544,13 @@
         <v>32651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5565,13 @@
         <v>4233</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5598,13 +5580,13 @@
         <v>1516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5613,13 +5595,13 @@
         <v>5749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5616,13 @@
         <v>1193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5655,7 +5637,7 @@
         <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5664,13 +5646,13 @@
         <v>2459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5720,13 @@
         <v>79469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -5753,13 +5735,13 @@
         <v>73292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -5768,13 +5750,13 @@
         <v>152761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5771,13 @@
         <v>68246</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>101</v>
@@ -5804,13 +5786,13 @@
         <v>69600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M23" s="7">
         <v>192</v>
@@ -5819,13 +5801,13 @@
         <v>137846</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5822,13 @@
         <v>17782</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -5855,13 +5837,13 @@
         <v>19985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -5870,13 +5852,13 @@
         <v>37767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5873,13 @@
         <v>3145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5906,13 +5888,13 @@
         <v>687</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>208</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5921,13 +5903,13 @@
         <v>3832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5924,13 @@
         <v>636</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5957,13 +5939,13 @@
         <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5972,13 +5954,13 @@
         <v>1253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6002,7 @@
         <v>461</v>
       </c>
       <c r="N27" s="7">
-        <v>333459</v>
+        <v>333458</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -6046,13 +6028,13 @@
         <v>176363</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H28" s="7">
         <v>240</v>
@@ -6061,13 +6043,13 @@
         <v>169182</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M28" s="7">
         <v>482</v>
@@ -6076,13 +6058,13 @@
         <v>345544</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6079,13 @@
         <v>126718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H29" s="7">
         <v>197</v>
@@ -6112,13 +6094,13 @@
         <v>136984</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -6127,13 +6109,13 @@
         <v>263701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>350</v>
+        <v>62</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6130,13 @@
         <v>35603</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -6166,10 +6148,10 @@
         <v>79</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -6178,13 +6160,13 @@
         <v>70418</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,10 +6184,10 @@
         <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -6214,13 +6196,13 @@
         <v>2202</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -6229,13 +6211,13 @@
         <v>9580</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>364</v>
+        <v>58</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>131</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6232,13 @@
         <v>1828</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6268,10 +6250,10 @@
         <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6280,13 +6262,13 @@
         <v>3712</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>370</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,7 +6324,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B943D4DA-4CB6-499E-88CC-927209CDBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E515D5-DDF0-4C24-8D9B-98B6E0DCD150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A07819B7-CB4D-4A17-9CF0-85EA70A3F2C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3E4B8DC-AB55-4DD5-B700-E0706B013A33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="369">
   <si>
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1045 +94,1057 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>38,33%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>46,59%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>40,56%</t>
+    <t>40,17%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EA25C7-7698-43E8-B573-601CF7859888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06CF203-5007-437E-A8BA-B650E07986CB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2206,10 +2218,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>43314</v>
+        <v>46575</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2221,10 +2233,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>46575</v>
+        <v>43314</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2257,10 +2269,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>57535</v>
+        <v>48944</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2272,10 +2284,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>48944</v>
+        <v>57535</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2308,10 +2320,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>19336</v>
+        <v>14213</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2323,10 +2335,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
-        <v>14213</v>
+        <v>19336</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2359,10 +2371,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2618</v>
+        <v>1325</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2374,10 +2386,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>1325</v>
+        <v>2618</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2410,34 +2422,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2446,13 +2458,13 @@
         <v>679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,34 +2473,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>167</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111057</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>167</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111057</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>353</v>
@@ -2497,51 +2509,51 @@
         <v>234538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>99</v>
+      </c>
+      <c r="D22" s="7">
+        <v>66662</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="7">
         <v>111</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>74410</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="7">
-        <v>99</v>
-      </c>
-      <c r="I22" s="7">
-        <v>66662</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -2550,13 +2562,13 @@
         <v>141071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,34 +2577,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>132</v>
+      </c>
+      <c r="D23" s="7">
+        <v>90369</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="7">
         <v>138</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>90981</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="7">
-        <v>132</v>
-      </c>
-      <c r="I23" s="7">
-        <v>90369</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -2601,13 +2613,13 @@
         <v>181350</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,34 +2628,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19270</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="7">
         <v>28</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>18700</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19270</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -2652,13 +2664,13 @@
         <v>37969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,34 +2679,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1974</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>593</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1974</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2703,13 +2715,13 @@
         <v>2567</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,31 +2733,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>695</v>
+        <v>661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2754,13 +2766,13 @@
         <v>1356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,34 +2781,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>279</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>185378</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>543</v>
@@ -2805,13 +2817,13 @@
         <v>364313</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,34 +2834,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>170</v>
+      </c>
+      <c r="D28" s="7">
+        <v>113237</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
         <v>177</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>117723</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="7">
-        <v>170</v>
-      </c>
-      <c r="I28" s="7">
-        <v>113237</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>347</v>
@@ -2858,13 +2870,13 @@
         <v>230960</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,34 +2885,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>204</v>
+      </c>
+      <c r="D29" s="7">
+        <v>139312</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
         <v>223</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>148516</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="7">
-        <v>204</v>
-      </c>
-      <c r="I29" s="7">
-        <v>139312</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>427</v>
@@ -2909,13 +2921,13 @@
         <v>287829</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,34 +2936,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>51</v>
+      </c>
+      <c r="D30" s="7">
+        <v>33483</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
         <v>58</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>38036</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H30" s="7">
-        <v>51</v>
-      </c>
-      <c r="I30" s="7">
-        <v>33483</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>109</v>
@@ -2960,13 +2972,13 @@
         <v>71519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,31 +2990,31 @@
         <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>3211</v>
+        <v>3298</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>3298</v>
+        <v>3211</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3011,13 +3023,13 @@
         <v>6509</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,34 +3038,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>661</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1374</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>661</v>
-      </c>
       <c r="J32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3077,34 +3089,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>431</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289992</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>465</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>308859</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>431</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289992</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>896</v>
@@ -3113,13 +3125,13 @@
         <v>598851</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15276DD-D7BD-43EB-810E-CB87926F683B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677E42-3035-40CF-BB37-A8680C274C94}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3806,10 +3818,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>69603</v>
+        <v>75963</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>141</v>
@@ -3821,10 +3833,10 @@
         <v>143</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>75963</v>
+        <v>69603</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>144</v>
@@ -3848,7 +3860,7 @@
         <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,34 +3869,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>89</v>
+      </c>
+      <c r="D17" s="7">
+        <v>62759</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="7">
         <v>79</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>56004</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="7">
-        <v>89</v>
-      </c>
-      <c r="I17" s="7">
-        <v>62759</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>168</v>
@@ -3893,13 +3905,13 @@
         <v>118763</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,34 +3920,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9441</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="7">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>27048</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9441</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -3944,13 +3956,13 @@
         <v>36489</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,34 +3971,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1802</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>689</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1802</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3995,13 +4007,13 @@
         <v>2491</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,31 +4022,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2082</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>177</v>
@@ -4049,10 +4061,10 @@
         <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,34 +4073,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>437</v>
@@ -4097,51 +4109,51 @@
         <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>91</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64924</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="7">
         <v>116</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>79786</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="7">
-        <v>91</v>
-      </c>
-      <c r="I22" s="7">
-        <v>64924</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4150,13 +4162,13 @@
         <v>144711</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,34 +4177,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>110</v>
+      </c>
+      <c r="D23" s="7">
+        <v>77546</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="7">
         <v>103</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>69636</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="7">
-        <v>110</v>
-      </c>
-      <c r="I23" s="7">
-        <v>77546</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M23" s="7">
         <v>213</v>
@@ -4201,13 +4213,13 @@
         <v>147182</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,34 +4228,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13509</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="7">
         <v>24</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>16175</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="7">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7">
-        <v>13509</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -4252,13 +4264,13 @@
         <v>29684</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,34 +4279,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1896</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4323</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1896</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4303,13 +4315,13 @@
         <v>6219</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,34 +4330,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>731</v>
+        <v>2959</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>217</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>2959</v>
+        <v>731</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4354,13 +4366,13 @@
         <v>3689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,34 +4381,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>228</v>
+      </c>
+      <c r="D27" s="7">
+        <v>160834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>228</v>
-      </c>
-      <c r="I27" s="7">
-        <v>160834</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -4405,13 +4417,13 @@
         <v>331485</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,34 +4434,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>199</v>
+      </c>
+      <c r="D28" s="7">
+        <v>140887</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" s="7">
         <v>217</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>149390</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="7">
-        <v>199</v>
-      </c>
-      <c r="I28" s="7">
-        <v>140887</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M28" s="7">
         <v>416</v>
@@ -4458,13 +4470,13 @@
         <v>290277</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,34 +4485,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>199</v>
+      </c>
+      <c r="D29" s="7">
+        <v>140305</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="7">
         <v>182</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>125640</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H29" s="7">
-        <v>199</v>
-      </c>
-      <c r="I29" s="7">
-        <v>140305</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>381</v>
@@ -4509,13 +4521,13 @@
         <v>265946</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,34 +4536,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>34</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22949</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="7">
         <v>63</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>43224</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="7">
-        <v>34</v>
-      </c>
-      <c r="I30" s="7">
-        <v>22949</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M30" s="7">
         <v>97</v>
@@ -4560,13 +4572,13 @@
         <v>66173</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,34 +4587,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3698</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5012</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3698</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="K31" s="7" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -4611,13 +4623,13 @@
         <v>8710</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,31 +4641,31 @@
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>2813</v>
+        <v>2959</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>2959</v>
+        <v>2813</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4662,13 +4674,13 @@
         <v>5771</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,34 +4689,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>474</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326078</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310798</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>916</v>
@@ -4713,13 +4725,13 @@
         <v>636877</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFA4DB5-20E1-46DB-9F17-82336D92B6E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91421FA8-E44B-4346-8CFC-DDE8E615810B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4761,7 +4773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5406,34 +5418,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7">
+        <v>95890</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="7">
         <v>134</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>96894</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="7">
-        <v>138</v>
-      </c>
-      <c r="I16" s="7">
-        <v>95890</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>272</v>
@@ -5442,13 +5454,13 @@
         <v>192783</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,34 +5469,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>96</v>
+      </c>
+      <c r="D17" s="7">
+        <v>67384</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
         <v>83</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>58471</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="7">
-        <v>96</v>
-      </c>
-      <c r="I17" s="7">
-        <v>67384</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -5493,13 +5505,13 @@
         <v>125855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,34 +5520,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14831</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>17820</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14831</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -5544,13 +5556,13 @@
         <v>32651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,34 +5571,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1516</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>4233</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1516</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5595,13 +5607,13 @@
         <v>5749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,31 +5625,31 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1193</v>
+        <v>1267</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1267</v>
+        <v>1193</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5649,10 +5661,10 @@
         <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,34 +5673,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>509</v>
@@ -5697,51 +5709,51 @@
         <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>102</v>
+      </c>
+      <c r="D22" s="7">
+        <v>73292</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="7">
         <v>108</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>79469</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H22" s="7">
-        <v>102</v>
-      </c>
-      <c r="I22" s="7">
-        <v>73292</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -5750,13 +5762,13 @@
         <v>152761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,34 +5777,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>101</v>
+      </c>
+      <c r="D23" s="7">
+        <v>69600</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="7">
         <v>91</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>68246</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H23" s="7">
-        <v>101</v>
-      </c>
-      <c r="I23" s="7">
-        <v>69600</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>192</v>
@@ -5801,13 +5813,13 @@
         <v>137846</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,34 +5828,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19985</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="7">
         <v>24</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>17782</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H24" s="7">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19985</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -5852,13 +5864,13 @@
         <v>37767</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,34 +5879,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>687</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3145</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>687</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5903,13 +5915,13 @@
         <v>3832</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,31 +5933,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5954,13 +5966,13 @@
         <v>1253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,49 +5981,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>233</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164181</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>228</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169278</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>233</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164181</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>461</v>
       </c>
       <c r="N27" s="7">
-        <v>333458</v>
+        <v>333459</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,34 +6034,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>240</v>
+      </c>
+      <c r="D28" s="7">
+        <v>169182</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H28" s="7">
         <v>242</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>176363</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="7">
-        <v>240</v>
-      </c>
-      <c r="I28" s="7">
-        <v>169182</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M28" s="7">
         <v>482</v>
@@ -6058,13 +6070,13 @@
         <v>345544</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,34 +6085,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>197</v>
+      </c>
+      <c r="D29" s="7">
+        <v>136984</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H29" s="7">
         <v>174</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>126718</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H29" s="7">
-        <v>197</v>
-      </c>
-      <c r="I29" s="7">
-        <v>136984</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -6109,13 +6121,13 @@
         <v>263701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,31 +6139,31 @@
         <v>49</v>
       </c>
       <c r="D30" s="7">
-        <v>35603</v>
+        <v>34816</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
       </c>
       <c r="I30" s="7">
-        <v>34816</v>
+        <v>35603</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -6160,13 +6172,13 @@
         <v>70418</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,34 +6187,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2202</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H31" s="7">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>7378</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2202</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>354</v>
+        <v>48</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>355</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -6211,13 +6223,13 @@
         <v>9580</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>58</v>
+        <v>364</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>358</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,31 +6241,31 @@
         <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>1828</v>
+        <v>1884</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1884</v>
+        <v>1828</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6262,13 +6274,13 @@
         <v>3712</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,34 +6289,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>492</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345068</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>478</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>347889</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>492</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345068</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>970</v>
@@ -6313,13 +6325,13 @@
         <v>692956</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
